--- a/Reports/GeneralTest.xlsx
+++ b/Reports/GeneralTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -84,26 +84,38 @@
     <t>Test Case Script Location</t>
   </si>
   <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>DownloadChromeDriver</t>
+  </si>
+  <si>
+    <t>Download Chrome Driver</t>
+  </si>
+  <si>
+    <t>LogigearKhoaNguyen&lt;79429536+LogigearKhoaNguyen@users.noreply.github.com&gt;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09/28/21 08:06:55</t>
+  </si>
+  <si>
+    <t>09/28/21 08:14:48</t>
+  </si>
+  <si>
+    <t>550edc52959890f80033dcaed2874707949919b5</t>
+  </si>
+  <si>
+    <t>Internet connection
+Chrome is installed on the device</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>N/A
-N/A</t>
-  </si>
-  <si>
-    <t>LogigearKhoaNguyen&lt;79429536+LogigearKhoaNguyen@users.noreply.github.com&gt;</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>09/28/21 08:06:55</t>
-  </si>
-  <si>
-    <t>47d53f395794495107c1ef3aaecc2ab63ae98da4</t>
-  </si>
-  <si>
-    <t>Create GeneralTest.md</t>
+    <t>Update GeneralTest.md</t>
   </si>
   <si>
     <t>Not executed</t>
@@ -571,13 +583,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,19 +605,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -613,19 +625,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,19 +645,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
@@ -671,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/GeneralTest.xlsx
+++ b/Reports/GeneralTest.xlsx
@@ -105,7 +105,7 @@
     <t>09/28/21 08:14:48</t>
   </si>
   <si>
-    <t>550edc52959890f80033dcaed2874707949919b5</t>
+    <t>eb45c8eec36329520ec1f5e41b4339eaac37e9cb</t>
   </si>
   <si>
     <t>Internet connection
@@ -118,7 +118,7 @@
     <t>Update GeneralTest.md</t>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -673,12 +673,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="n">
+        <v>44467.638194444444</v>
+      </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
